--- a/_xlsx_files/error - too many pipes - ing.xlsx
+++ b/_xlsx_files/error - too many pipes - ing.xlsx
@@ -124,7 +124,7 @@
     <t>00033674069585</t>
   </si>
   <si>
-    <t>0|Milk Thistle Extract (seed) standardized to 80% silymarin (140 mg) |175|mg|||**||</t>
+    <t>0|Milk Thistle Extract (seed) standardized to 80% silymarin (140 mg) |175|mg|||**|||</t>
   </si>
   <si>
     <t>plant-derived capsule (hypromelllose), cellulose, potassium bicarbonate, citric acid, magnesium stearate</t>

--- a/_xlsx_files/error - too many pipes - ing.xlsx
+++ b/_xlsx_files/error - too many pipes - ing.xlsx
@@ -124,7 +124,7 @@
     <t>00033674069585</t>
   </si>
   <si>
-    <t>0|Milk Thistle Extract (seed) standardized to 80% silymarin (140 mg) |175|mg|||**|||</t>
+    <t>0|Milk Thistle Extract (seed) standardized to 80% silymarin (140 mg) |175|mg|||**|</t>
   </si>
   <si>
     <t>plant-derived capsule (hypromelllose), cellulose, potassium bicarbonate, citric acid, magnesium stearate</t>
